--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1861274.376798093</v>
+        <v>1834931.073923552</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5442147.829313819</v>
+        <v>5442147.82931382</v>
       </c>
     </row>
     <row r="11">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>35.18454619735122</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>53.51252900994975</v>
+        <v>28.30850045563978</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -747,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -911,13 +911,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>19.7279353865638</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,16 +938,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -993,10 +993,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>20.02544070929549</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>56.0984764700086</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1130,31 +1130,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>220.6450016938488</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>145.4043783113158</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>110.4285199878827</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,31 +1367,31 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>11.86372679529251</v>
       </c>
     </row>
     <row r="12">
@@ -1449,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1464,13 +1464,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>90.7369711799285</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1616,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,25 +1649,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,13 +1734,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1749,10 +1749,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>131.8562746194806</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1862,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1895,13 +1895,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>84.41978777916125</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1938,10 +1938,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>7.837102735344149</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,67 +2078,67 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="C20" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110.1497834296626</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2257,13 +2257,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>212.2853856434421</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>87.54194930061647</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2494,40 +2494,40 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2609,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,22 +2640,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>24.13118146277893</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2691,16 +2691,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>66.40140871655116</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,25 +2868,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>52.0628898883872</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2928,16 +2928,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>10.15822114686783</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>124.9488863009592</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>102.3193935893247</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3171,10 +3171,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>162.4417619616646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,25 +3266,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F35" t="n">
+      <c r="H35" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="I35" t="n">
         <v>200.3360962888296</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -3329,10 +3329,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>90.08131101346696</v>
+        <v>72.87685072029042</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3475,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,58 +3512,58 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,19 +3588,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>12.90925672556489</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>19.23097888973112</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3740,22 +3740,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3782,16 +3782,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>241.0142888776591</v>
@@ -3819,7 +3819,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>16.16726461546785</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>118.5628686044507</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,10 +3879,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3910,58 +3910,58 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>241.0142888776591</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4037,10 +4037,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y44" t="n">
         <v>241.0142888776591</v>
@@ -4062,22 +4062,22 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.4497289038073</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C2" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="D2" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="E2" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="F2" t="n">
-        <v>124.457110779899</v>
+        <v>98.99849607857584</v>
       </c>
       <c r="G2" t="n">
         <v>70.40405117388919</v>
@@ -4331,13 +4331,13 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064623</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="L2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
         <v>161.0727123199487</v>
@@ -4361,19 +4361,19 @@
         <v>159.9970564337892</v>
       </c>
       <c r="U2" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="V2" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="W2" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="X2" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="Y2" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.9439968277793</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C3" t="n">
-        <v>105.9439968277793</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D3" t="n">
-        <v>105.9439968277793</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E3" t="n">
-        <v>105.9439968277793</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F3" t="n">
-        <v>105.9439968277793</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>51.89093722176946</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>4.28100232079598</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M3" t="n">
-        <v>55.11790488024824</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
         <v>108.0953086000985</v>
@@ -4425,7 +4425,7 @@
         <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
@@ -4437,22 +4437,22 @@
         <v>105.9439968277793</v>
       </c>
       <c r="T3" t="n">
-        <v>105.9439968277793</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="U3" t="n">
-        <v>105.9439968277793</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="V3" t="n">
-        <v>105.9439968277793</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="W3" t="n">
-        <v>105.9439968277793</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="X3" t="n">
-        <v>105.9439968277793</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="Y3" t="n">
-        <v>105.9439968277793</v>
+        <v>58.33406192680583</v>
       </c>
     </row>
     <row r="4">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>730.8505943024719</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="C5" t="n">
-        <v>730.8505943024719</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="D5" t="n">
-        <v>730.8505943024719</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="E5" t="n">
-        <v>730.8505943024719</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="F5" t="n">
-        <v>487.4018176583718</v>
+        <v>495.259035872464</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y5" t="n">
-        <v>730.8505943024719</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.6599081753446</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="C6" t="n">
-        <v>668.2068788942177</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4671,25 +4671,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>842.6599081753446</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>842.6599081753446</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>842.6599081753446</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="V6" t="n">
-        <v>842.6599081753446</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="W6" t="n">
-        <v>842.6599081753446</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="X6" t="n">
-        <v>842.6599081753446</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="Y6" t="n">
-        <v>842.6599081753446</v>
+        <v>430.6185591254734</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>497.7346397818405</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C8" t="n">
-        <v>497.7346397818405</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D8" t="n">
-        <v>254.2858631377404</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E8" t="n">
-        <v>254.2858631377404</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F8" t="n">
-        <v>247.340362388537</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>340.4105774675873</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V9" t="n">
-        <v>340.4105774675873</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W9" t="n">
-        <v>340.4105774675873</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>340.4105774675873</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4942,25 +4942,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5066,25 +5066,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T11" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U11" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V11" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W11" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X11" t="n">
-        <v>749.627473042513</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y11" t="n">
-        <v>749.627473042513</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>456.7918502977974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>282.3388210166704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M12" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
         <v>542.809531908403</v>
@@ -5142,28 +5142,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>872.4036492682842</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>872.4036492682842</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>872.4036492682842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X12" t="n">
-        <v>664.5521490627514</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>456.7918502977974</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
         <v>712.019119383956</v>
@@ -5382,25 +5382,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>227.0414418751666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5543,22 +5543,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>787.9255531013317</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>613.4725238202047</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>464.5381141589534</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>305.3006591534979</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>158.7661011803829</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5598,19 +5598,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5634,10 +5634,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>956.1408901213997</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>956.1408901213997</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5695,13 +5695,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5786,16 +5786,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="E21" t="n">
         <v>19.28114311021272</v>
@@ -5835,13 +5835,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6032,7 +6032,7 @@
         <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>256.1153302261713</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>256.1153302261713</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>256.1153302261713</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>256.1153302261713</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6078,40 +6078,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>875.6309440958721</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>875.6309440958721</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>875.6309440958721</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>875.6309440958721</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>875.6309440958721</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W24" t="n">
-        <v>632.1821674517721</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X24" t="n">
-        <v>424.3306672462393</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>424.3306672462393</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
         <v>19.28114311021272</v>
@@ -6175,22 +6175,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6245,28 +6245,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y26" t="n">
         <v>19.28114311021272</v>
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>520.918188268317</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="C27" t="n">
-        <v>520.918188268317</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="D27" t="n">
-        <v>520.918188268317</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="E27" t="n">
-        <v>361.6807332628614</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="F27" t="n">
-        <v>361.6807332628614</v>
+        <v>273.4406610937102</v>
       </c>
       <c r="G27" t="n">
-        <v>222.9499078454769</v>
+        <v>134.7098356763257</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
         <v>964.0571555106362</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X27" t="n">
-        <v>756.2056553051034</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y27" t="n">
-        <v>689.133525288385</v>
+        <v>419.9752190668252</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.7108255783361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E29" t="n">
-        <v>233.7108255783361</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F29" t="n">
-        <v>233.7108255783361</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G29" t="n">
-        <v>233.7108255783361</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>619.4388494194218</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C30" t="n">
-        <v>619.4388494194218</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D30" t="n">
-        <v>470.5044397581705</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6546,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>619.4388494194218</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X30" t="n">
-        <v>619.4388494194218</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y30" t="n">
-        <v>619.4388494194218</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>271.5684755889637</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6340659277124</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6780,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>634.6640077999109</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V33" t="n">
-        <v>634.6640077999109</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W33" t="n">
-        <v>391.2152311558108</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X33" t="n">
-        <v>183.363730950278</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>446.0215048700907</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
         <v>19.28114311021272</v>
@@ -6895,13 +6895,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C35" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D35" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E35" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="F35" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="G35" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="C35" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="D35" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="H35" t="n">
         <v>233.7108255783361</v>
-      </c>
-      <c r="F35" t="n">
-        <v>31.35113235729608</v>
-      </c>
-      <c r="G35" t="n">
-        <v>31.35113235729608</v>
-      </c>
-      <c r="H35" t="n">
-        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
         <v>31.35113235729608</v>
@@ -6977,10 +6977,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7020,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>569.7098081763618</v>
+        <v>413.6707063474109</v>
       </c>
       <c r="V36" t="n">
-        <v>569.7098081763618</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="W36" t="n">
-        <v>569.7098081763618</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="X36" t="n">
-        <v>569.7098081763618</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y36" t="n">
-        <v>361.9495094114078</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="37">
@@ -7111,22 +7111,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>521.2549444941228</v>
+        <v>38.70637431196133</v>
       </c>
       <c r="C39" t="n">
-        <v>521.2549444941228</v>
+        <v>38.70637431196133</v>
       </c>
       <c r="D39" t="n">
-        <v>521.2549444941228</v>
+        <v>38.70637431196133</v>
       </c>
       <c r="E39" t="n">
-        <v>508.2152912359765</v>
+        <v>38.70637431196133</v>
       </c>
       <c r="F39" t="n">
-        <v>361.6807332628614</v>
+        <v>38.70637431196133</v>
       </c>
       <c r="G39" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7254,22 +7254,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7287,16 +7287,16 @@
         <v>689.4702815141908</v>
       </c>
       <c r="V39" t="n">
-        <v>689.4702815141908</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W39" t="n">
-        <v>689.4702815141908</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X39" t="n">
-        <v>689.4702815141908</v>
+        <v>246.4666730769152</v>
       </c>
       <c r="Y39" t="n">
-        <v>689.4702815141908</v>
+        <v>38.70637431196133</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>720.6083788665362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C41" t="n">
-        <v>720.6083788665362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D41" t="n">
-        <v>720.6083788665362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E41" t="n">
-        <v>477.1596022224361</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F41" t="n">
-        <v>233.7108255783361</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U41" t="n">
-        <v>720.6083788665362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V41" t="n">
-        <v>720.6083788665362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X41" t="n">
-        <v>720.6083788665362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y41" t="n">
-        <v>720.6083788665362</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
         <v>19.28114311021272</v>
@@ -7491,22 +7491,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7515,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>846.5570557448675</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>846.5570557448675</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="U42" t="n">
-        <v>846.5570557448675</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="V42" t="n">
-        <v>846.5570557448675</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="W42" t="n">
-        <v>603.1082791007675</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="X42" t="n">
-        <v>395.2567788952347</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y42" t="n">
-        <v>187.4964801302808</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7609,10 +7609,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y44" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>555.4877027295624</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C45" t="n">
-        <v>555.4877027295624</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D45" t="n">
-        <v>555.4877027295624</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E45" t="n">
-        <v>418.6697947459187</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F45" t="n">
-        <v>272.1352367728036</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
-        <v>735.0935810768601</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P45" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7752,25 +7752,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>555.4877027295624</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W45" t="n">
-        <v>555.4877027295624</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X45" t="n">
-        <v>555.4877027295624</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y45" t="n">
-        <v>555.4877027295624</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="46">
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>271.4402576706899</v>
       </c>
       <c r="L2" t="n">
         <v>289.278943979937</v>
@@ -7988,7 +7988,7 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>280.7634702223003</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>189.9047864055835</v>
       </c>
       <c r="M3" t="n">
-        <v>193.4844405477277</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,19 +8295,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>357.7767872515269</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8769,16 +8769,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M12" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -9006,19 +9006,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>231.1529892133073</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9246,22 +9246,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,16 +9483,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9726,16 +9726,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,7 +9966,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,13 +10203,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,13 +10668,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11391,10 +11391,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23273,13 +23273,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>374.3742118607611</v>
       </c>
     </row>
     <row r="12">
@@ -23337,10 +23337,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23352,13 +23352,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,28 +23382,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>135.2044109010463</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23504,19 +23504,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,25 +23537,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>338.0479125612334</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,13 +23622,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23637,10 +23637,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>73.91671058399692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23750,10 +23750,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23783,13 +23783,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>130.418315862507</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,10 +23808,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23826,10 +23826,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23874,7 +23874,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>197.9358824681333</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23944,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24026,7 +24026,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>56.38340022020472</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>41.31998168728992</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24145,13 +24145,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,7 +24221,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24294,7 +24294,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24303,7 +24303,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24330,25 +24330,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>12.61588485202667</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24382,7 +24382,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
@@ -24415,7 +24415,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24497,19 +24497,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,22 +24528,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>88.10426277371752</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24579,16 +24579,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>139.2812870607532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24664,10 +24664,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24683,7 +24683,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24695,13 +24695,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>169.9996104372708</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,10 +24722,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24737,16 +24737,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24756,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>105.5821905670137</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24816,16 +24816,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>195.6147640566097</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24889,7 +24889,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>240.3240054700484</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24932,10 +24932,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24962,10 +24962,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24980,10 +24980,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,13 +24996,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>55.32568686607625</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25044,13 +25044,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25059,10 +25059,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>43.24093381563975</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,25 +25154,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>206.5399494528818</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25217,10 +25217,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25281,16 +25281,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>135.8600710675079</v>
+        <v>153.0645313606844</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25351,7 +25351,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25363,13 +25363,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>121.6721164735665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25400,13 +25400,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25451,7 +25451,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25476,19 +25476,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>144.7358237298361</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>118.1125382734795</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25527,16 +25527,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25628,22 +25628,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>328.2817459595876</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,16 +25670,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>10.33136403017744</v>
@@ -25707,7 +25707,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25755,10 +25755,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>155.51590648837</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>81.60186009037089</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25767,10 +25767,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>124.2586028933485</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25925,10 +25925,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y44" t="n">
         <v>145.2236497783945</v>
@@ -25950,22 +25950,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>22.19535155159363</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>62.17774896794338</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,7 +25992,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26004,13 +26004,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>833248.0966217458</v>
+        <v>833248.0966217457</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>349056.5022059418</v>
+        <v>349056.5022059419</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>349056.5022059419</v>
+        <v>349056.5022059418</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>349056.5022059419</v>
+        <v>349056.5022059418</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>349056.5022059418</v>
+        <v>349056.5022059419</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982126</v>
@@ -26323,7 +26323,7 @@
         <v>249241.0087969986</v>
       </c>
       <c r="F2" t="n">
-        <v>249241.0087969985</v>
+        <v>249241.0087969986</v>
       </c>
       <c r="G2" t="n">
         <v>249241.0087969986</v>
@@ -26335,25 +26335,25 @@
         <v>249241.0087969986</v>
       </c>
       <c r="J2" t="n">
-        <v>249241.0087969985</v>
+        <v>249241.0087969986</v>
       </c>
       <c r="K2" t="n">
         <v>249241.0087969986</v>
       </c>
       <c r="L2" t="n">
+        <v>249241.0087969986</v>
+      </c>
+      <c r="M2" t="n">
+        <v>249241.0087969986</v>
+      </c>
+      <c r="N2" t="n">
         <v>249241.0087969985</v>
-      </c>
-      <c r="M2" t="n">
-        <v>249241.0087969985</v>
-      </c>
-      <c r="N2" t="n">
-        <v>249241.0087969986</v>
       </c>
       <c r="O2" t="n">
         <v>249241.0087969986</v>
       </c>
       <c r="P2" t="n">
-        <v>249241.0087969986</v>
+        <v>249241.0087969985</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>17933.27925940137</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>339491.5823438202</v>
+        <v>341864.8743836956</v>
       </c>
       <c r="C4" t="n">
-        <v>292606.3788338369</v>
+        <v>295860.2172754403</v>
       </c>
       <c r="D4" t="n">
-        <v>292606.3788338369</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="E4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>221475.3040311856</v>
+        <v>219102.0119913105</v>
       </c>
       <c r="C6" t="n">
-        <v>214317.3576139459</v>
+        <v>211063.5191723426</v>
       </c>
       <c r="D6" t="n">
-        <v>274893.679800614</v>
+        <v>271639.8413590106</v>
       </c>
       <c r="E6" t="n">
-        <v>220926.4888338595</v>
+        <v>217672.6503922561</v>
       </c>
       <c r="F6" t="n">
-        <v>220926.4888338594</v>
+        <v>217672.6503922561</v>
       </c>
       <c r="G6" t="n">
-        <v>220926.4888338595</v>
+        <v>217672.6503922561</v>
       </c>
       <c r="H6" t="n">
-        <v>220926.4888338595</v>
+        <v>217672.6503922561</v>
       </c>
       <c r="I6" t="n">
-        <v>220926.4888338595</v>
+        <v>217672.6503922561</v>
       </c>
       <c r="J6" t="n">
-        <v>206925.2566935801</v>
+        <v>203671.4182519768</v>
       </c>
       <c r="K6" t="n">
-        <v>172669.5359002268</v>
+        <v>169415.6974586234</v>
       </c>
       <c r="L6" t="n">
-        <v>220926.4888338594</v>
+        <v>217672.6503922561</v>
       </c>
       <c r="M6" t="n">
-        <v>220926.4888338594</v>
+        <v>217672.6503922561</v>
       </c>
       <c r="N6" t="n">
-        <v>220926.4888338594</v>
+        <v>217672.650392256</v>
       </c>
       <c r="O6" t="n">
-        <v>220926.4888338594</v>
+        <v>217672.6503922561</v>
       </c>
       <c r="P6" t="n">
-        <v>220926.4888338595</v>
+        <v>217672.650392256</v>
       </c>
     </row>
   </sheetData>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>371.6914995443602</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7902085051853</v>
+        <v>386.9942370594953</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27433,7 +27433,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27467,19 +27467,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>91.55668338343412</v>
       </c>
       <c r="G3" t="n">
-        <v>83.83098815326088</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>65.84820001079058</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>153.0308931428578</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27631,13 +27631,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>319.7468667292034</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,16 +27658,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.2232602156654</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27713,10 +27713,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.6577303945423</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>169.8429056109662</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>56.32934533914265</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>18.14994616795082</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27850,31 +27850,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>162.0888399696318</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>324.7966126378724</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,10 +27895,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27947,13 +27947,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>80.53700376965901</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>122.3720671615425</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>18.14994616795082</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,16 +28026,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>147.3903175997337</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -34699,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="L2" t="n">
         <v>53.51252900994975</v>
@@ -34708,7 +34708,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>51.35040662570936</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="M3" t="n">
-        <v>51.35040662570935</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,10 +34945,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>226.4350751681936</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M12" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35656,7 +35656,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>99.81127712997396</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35893,7 +35893,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35966,22 +35966,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36446,16 +36446,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36686,7 +36686,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>113.3808631277494</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,13 +36923,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38111,10 +38111,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1834931.073923552</v>
+        <v>1837254.74573742</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742179</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -671,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>28.30850045563978</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>13.00576294050473</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="F3" t="n">
         <v>53.51252900994975</v>
@@ -753,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>47.13383555196375</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.170977004479167</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>53.51252900994975</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3.89241773958567</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -905,61 +907,61 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H5" t="n">
-        <v>19.7279353865638</v>
-      </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>190.1066023865956</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -993,10 +995,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="U6" t="n">
-        <v>56.0984764700086</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>33.60023339142363</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -1269,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>110.4285199878827</v>
+        <v>216.6999729388017</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
@@ -1278,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1306,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1385,58 +1387,58 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.86372679529251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1503,16 +1505,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>144.5674975588848</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1540,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1610,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1621,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1649,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>72.47049842454879</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1683,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>56.26539607665198</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1695,19 +1697,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1743,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1850,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1865,7 +1867,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,28 +1888,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>120.9273370453295</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>33.80371536444981</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1923,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>230.5219311756913</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2041,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2078,17 +2080,17 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
@@ -2123,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>24.74894597221386</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2257,13 +2259,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2281,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2321,11 +2323,11 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,25 +2362,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>124.906780124857</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2451,16 +2453,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2527,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2643,19 +2645,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>24.13118146277893</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2694,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>124.906780124857</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2810,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2846,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2868,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2916,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>67.35888363780772</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>10.15822114686783</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3029,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>124.9488863009592</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3044,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3105,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>124.9970695510301</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>102.3193935893247</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,70 +3268,70 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3393,13 +3395,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>72.87685072029042</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>3.55522121023865</v>
       </c>
     </row>
     <row r="37">
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C38" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3594,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>19.23097888973112</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3633,7 +3635,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>19.23097888973112</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3703,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3740,14 +3742,14 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3782,16 +3784,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>241.0142888776591</v>
@@ -3800,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3819,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>137.0062620734511</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3864,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>118.5628686044507</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,17 +3979,17 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4031,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4068,16 +4070,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>10.27068583523948</v>
       </c>
       <c r="H45" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
@@ -4189,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105.9439968277793</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="C2" t="n">
-        <v>105.9439968277793</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="D2" t="n">
-        <v>105.9439968277793</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="E2" t="n">
-        <v>105.9439968277793</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="F2" t="n">
-        <v>98.99849607857584</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="G2" t="n">
         <v>70.40405117388919</v>
@@ -4331,10 +4333,10 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="L2" t="n">
         <v>55.11790488024824</v>
-      </c>
-      <c r="L2" t="n">
-        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
         <v>108.0953086000985</v>
@@ -4364,16 +4366,16 @@
         <v>105.9439968277793</v>
       </c>
       <c r="V2" t="n">
-        <v>105.9439968277793</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="W2" t="n">
-        <v>105.9439968277793</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="X2" t="n">
-        <v>105.9439968277793</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="Y2" t="n">
-        <v>105.9439968277793</v>
+        <v>92.8068625444412</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.33406192680583</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="C3" t="n">
-        <v>58.33406192680583</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="D3" t="n">
-        <v>58.33406192680583</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="E3" t="n">
-        <v>58.33406192680583</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="F3" t="n">
-        <v>4.28100232079598</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
-        <v>4.28100232079598</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
@@ -4425,34 +4427,34 @@
         <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>105.9439968277793</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>58.33406192680583</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>58.33406192680583</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V3" t="n">
-        <v>58.33406192680583</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W3" t="n">
-        <v>58.33406192680583</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X3" t="n">
-        <v>58.33406192680583</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y3" t="n">
-        <v>58.33406192680583</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="C4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="D4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="E4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="F4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="G4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="H4" t="n">
-        <v>134.8815577205762</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="I4" t="n">
         <v>80.82849811456629</v>
@@ -4504,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0643627756056</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="W4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="X4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>738.7078125165641</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="C5" t="n">
-        <v>738.7078125165641</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="D5" t="n">
-        <v>738.7078125165641</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="E5" t="n">
-        <v>738.7078125165641</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="F5" t="n">
-        <v>495.259035872464</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="G5" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4595,22 +4597,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V5" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>738.7078125165641</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X5" t="n">
-        <v>738.7078125165641</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="Y5" t="n">
-        <v>738.7078125165641</v>
+        <v>285.1327311248648</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>430.6185591254734</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C6" t="n">
-        <v>430.6185591254734</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>430.6185591254734</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>271.3811041200179</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>271.3811041200179</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4656,10 +4658,10 @@
         <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4671,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="U6" t="n">
-        <v>430.6185591254734</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="V6" t="n">
-        <v>430.6185591254734</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="W6" t="n">
-        <v>430.6185591254734</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="X6" t="n">
-        <v>430.6185591254734</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="Y6" t="n">
-        <v>430.6185591254734</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>559.1338160830064</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="C8" t="n">
-        <v>518.2486856454962</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="D8" t="n">
-        <v>518.2486856454962</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="E8" t="n">
-        <v>518.2486856454962</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F8" t="n">
         <v>274.7999090013961</v>
@@ -4832,22 +4834,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>525.1941863946997</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.5825927271064</v>
+        <v>281.7454097505996</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>679.0958513775852</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>742.8341567219593</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V11" t="n">
-        <v>742.8341567219593</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W11" t="n">
-        <v>742.8341567219593</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X11" t="n">
-        <v>499.3853800778592</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y11" t="n">
-        <v>487.4018176583718</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L12" t="n">
         <v>65.60123993063803</v>
@@ -5151,19 +5153,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>341.255911560952</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>341.255911560952</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
     </row>
     <row r="13">
@@ -5188,13 +5190,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J13" t="n">
         <v>41.77557929797318</v>
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
         <v>31.35113235729608</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>243.9530410142718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C17" t="n">
-        <v>243.9530410142718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D17" t="n">
-        <v>243.9530410142718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E17" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F17" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G17" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U17" t="n">
-        <v>243.9530410142718</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V17" t="n">
-        <v>243.9530410142718</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W17" t="n">
-        <v>243.9530410142718</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X17" t="n">
-        <v>243.9530410142718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y17" t="n">
-        <v>243.9530410142718</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,43 +5603,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5689,10 +5691,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R19" t="n">
         <v>19.28114311021272</v>
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.7108255783361</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
         <v>19.28114311021272</v>
@@ -5835,13 +5837,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6099,19 +6101,19 @@
         <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V24" t="n">
-        <v>125.0774898247174</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>145.4496078827955</v>
       </c>
     </row>
     <row r="25">
@@ -6175,13 +6177,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6260,16 +6262,16 @@
         <v>710.516763498309</v>
       </c>
       <c r="V26" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="W26" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="X26" t="n">
         <v>467.067986854209</v>
       </c>
-      <c r="W26" t="n">
-        <v>223.6192102101089</v>
-      </c>
-      <c r="X26" t="n">
-        <v>223.6192102101089</v>
-      </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>419.9752190668252</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>419.9752190668252</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>419.9752190668252</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>419.9752190668252</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>273.4406610937102</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>134.7098356763257</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,10 +6314,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
         <v>964.0571555106362</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V27" t="n">
-        <v>627.7355178317791</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W27" t="n">
-        <v>627.7355178317791</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>627.7355178317791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>419.9752190668252</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>342.668582052591</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C30" t="n">
-        <v>168.215552771464</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6546,16 +6548,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>248.2447175439888</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>621.4310051123648</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788936</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="X30" t="n">
-        <v>718.6442178376129</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="Y30" t="n">
-        <v>510.883919072659</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="31">
@@ -6643,10 +6645,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>601.5428246748836</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C32" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>601.5428246748836</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U32" t="n">
-        <v>601.5428246748836</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V32" t="n">
-        <v>601.5428246748836</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W32" t="n">
-        <v>601.5428246748836</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X32" t="n">
-        <v>601.5428246748836</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y32" t="n">
-        <v>601.5428246748836</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>446.0215048700907</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>271.5684755889637</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>122.6340659277124</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6780,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W33" t="n">
-        <v>446.0215048700907</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X33" t="n">
-        <v>446.0215048700907</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y33" t="n">
-        <v>446.0215048700907</v>
+        <v>145.5408093233744</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
         <v>19.28114311021272</v>
@@ -6877,31 +6879,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D35" t="n">
-        <v>720.6083788665362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E35" t="n">
-        <v>720.6083788665362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F35" t="n">
-        <v>720.6083788665362</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>178.5185981156682</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7020,7 +7022,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M36" t="n">
         <v>473.4149733950735</v>
@@ -7041,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U36" t="n">
-        <v>413.6707063474109</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V36" t="n">
-        <v>178.5185981156682</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W36" t="n">
-        <v>178.5185981156682</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="X36" t="n">
-        <v>178.5185981156682</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="Y36" t="n">
-        <v>178.5185981156682</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="37">
@@ -7123,7 +7125,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
         <v>19.28114311021272</v>
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7201,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>38.70637431196133</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>38.70637431196133</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>38.70637431196133</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>38.70637431196133</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>38.70637431196133</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7260,16 +7262,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V39" t="n">
-        <v>454.3181732824481</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W39" t="n">
-        <v>454.3181732824481</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>246.4666730769152</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>38.70637431196133</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>742.8341567219593</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>517.4848137278872</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U41" t="n">
-        <v>274.0360370837871</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V41" t="n">
-        <v>274.0360370837871</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W41" t="n">
-        <v>274.0360370837871</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X41" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>157.6713068207694</v>
       </c>
       <c r="C42" t="n">
         <v>19.28114311021272</v>
@@ -7494,13 +7496,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O42" t="n">
         <v>712.019119383956</v>
@@ -7512,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>569.7098081763618</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>569.7098081763618</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V42" t="n">
-        <v>569.7098081763618</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W42" t="n">
-        <v>569.7098081763618</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X42" t="n">
-        <v>569.7098081763618</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y42" t="n">
-        <v>361.9495094114078</v>
+        <v>325.8866438408374</v>
       </c>
     </row>
     <row r="43">
@@ -7594,19 +7596,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
         <v>19.28114311021272</v>
@@ -7625,13 +7627,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
         <v>19.28114311021272</v>
@@ -7646,7 +7648,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K44" t="n">
         <v>122.2961490211351</v>
@@ -7667,28 +7669,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
         <v>506.1786963984129</v>
@@ -7701,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>69.84447166430675</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="C45" t="n">
-        <v>69.84447166430675</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="D45" t="n">
-        <v>69.84447166430675</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="E45" t="n">
-        <v>69.84447166430675</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="F45" t="n">
-        <v>69.84447166430675</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="G45" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7749,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V45" t="n">
-        <v>728.9050472788936</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W45" t="n">
-        <v>485.4562706347935</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X45" t="n">
-        <v>277.6047704292607</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y45" t="n">
-        <v>69.84447166430675</v>
+        <v>30.40970589960398</v>
       </c>
     </row>
     <row r="46">
@@ -7837,13 +7839,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
         <v>19.28114311021272</v>
@@ -7979,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>271.4402576706899</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
         <v>282.9255926065406</v>
@@ -8073,10 +8075,10 @@
         <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,13 +8306,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L12" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,16 +9017,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9249,7 +9251,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,16 +9485,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>242.4075215744184</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9960,13 +9962,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10194,10 +10196,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>243.2069195535496</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10206,7 +10208,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10668,10 +10670,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M36" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
@@ -10908,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,16 +11144,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11391,7 +11393,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>247.3552705420797</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23273,13 +23275,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,31 +23302,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>374.3742118607611</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23352,13 +23354,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23391,16 +23393,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>88.23308959054049</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>57.07350359897357</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23498,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23507,13 +23509,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23537,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23571,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>110.2677875732154</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23583,19 +23585,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23631,10 +23633,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23738,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23753,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,28 +23776,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>130.418315862507</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>335.9273853140192</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23811,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>21.17305198522826</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23929,13 +23931,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9875061275654</v>
+        <v>280.8531039918463</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24011,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24054,7 +24056,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>41.31998168728992</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>226.9460371887057</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24145,13 +24147,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24169,10 +24171,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24209,10 +24211,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,25 +24250,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>240.1525967516569</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>41.62640352501036</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24339,16 +24341,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24500,16 +24502,16 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24531,19 +24533,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>88.10426277371752</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24582,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>126.7882030360626</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24661,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24683,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24698,10 +24700,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>169.9996104372708</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24734,10 +24736,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24756,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>158.5824984431671</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24822,7 +24824,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>195.6147640566097</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24917,10 +24919,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>240.3240054700484</v>
+        <v>284.9381847551875</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24932,10 +24934,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24965,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>41.53611409883725</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>55.32568686607625</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25117,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,19 +25165,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25214,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,13 +25235,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25281,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>153.0645313606844</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>202.1274745670657</v>
       </c>
     </row>
     <row r="37">
@@ -25363,10 +25365,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25439,25 +25441,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>316.5592023139553</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25482,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>118.1125382734795</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25521,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>180.9337498050905</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25591,10 +25593,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25628,13 +25630,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,7 +25645,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>328.2817459595876</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,16 +25672,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>10.33136403017744</v>
@@ -25688,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>307.3148329761767</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25707,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>35.70223691486467</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>81.60186009037089</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25834,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25849,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25865,7 +25867,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25919,19 +25921,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25956,16 +25958,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>127.0728313279712</v>
       </c>
       <c r="H45" t="n">
-        <v>62.17774896794338</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26001,7 +26003,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>833248.0966217457</v>
+        <v>833248.0966217458</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>349056.5022059419</v>
+        <v>349056.5022059418</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>349056.5022059418</v>
+        <v>349056.5022059419</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>349056.5022059418</v>
+        <v>349056.5022059419</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>349056.5022059418</v>
+        <v>349056.5022059419</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>349056.5022059418</v>
+        <v>349056.5022059419</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>349056.5022059418</v>
+        <v>349056.5022059419</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>349056.5022059418</v>
+        <v>349056.5022059419</v>
       </c>
     </row>
     <row r="15">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982126</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982124</v>
-      </c>
-      <c r="C2" t="n">
-        <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982125</v>
@@ -26323,7 +26325,7 @@
         <v>249241.0087969986</v>
       </c>
       <c r="F2" t="n">
-        <v>249241.0087969986</v>
+        <v>249241.0087969985</v>
       </c>
       <c r="G2" t="n">
         <v>249241.0087969986</v>
@@ -26347,13 +26349,13 @@
         <v>249241.0087969986</v>
       </c>
       <c r="N2" t="n">
-        <v>249241.0087969985</v>
+        <v>249241.0087969986</v>
       </c>
       <c r="O2" t="n">
         <v>249241.0087969986</v>
       </c>
       <c r="P2" t="n">
-        <v>249241.0087969985</v>
+        <v>249241.0087969986</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>341864.8743836956</v>
+        <v>341864.8743836955</v>
       </c>
       <c r="C4" t="n">
         <v>295860.2172754403</v>
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>219102.0119913105</v>
+        <v>219102.0119913108</v>
       </c>
       <c r="C6" t="n">
-        <v>211063.5191723426</v>
+        <v>211063.5191723423</v>
       </c>
       <c r="D6" t="n">
         <v>271639.8413590106</v>
@@ -26531,7 +26533,7 @@
         <v>217672.6503922561</v>
       </c>
       <c r="F6" t="n">
-        <v>217672.6503922561</v>
+        <v>217672.650392256</v>
       </c>
       <c r="G6" t="n">
         <v>217672.6503922561</v>
@@ -26555,13 +26557,13 @@
         <v>217672.6503922561</v>
       </c>
       <c r="N6" t="n">
-        <v>217672.650392256</v>
+        <v>217672.6503922561</v>
       </c>
       <c r="O6" t="n">
         <v>217672.6503922561</v>
       </c>
       <c r="P6" t="n">
-        <v>217672.650392256</v>
+        <v>217672.6503922561</v>
       </c>
     </row>
   </sheetData>
@@ -27391,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>386.9942370594953</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27436,7 +27438,7 @@
         <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>314.7464955296302</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,7 +27466,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>111.257836229695</v>
       </c>
       <c r="F3" t="n">
         <v>91.55668338343412</v>
@@ -27473,13 +27475,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>153.0308931428578</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27552,10 +27554,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>161.0561955029604</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9379459173085</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>39.84665110672302</v>
@@ -27576,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>173.4009736375838</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27594,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>198.6251143138782</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27625,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>319.7468667292034</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27667,19 +27669,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>179.6244982918734</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,13 +27700,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27713,10 +27715,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>154.8758545618492</v>
       </c>
       <c r="U6" t="n">
-        <v>169.8429056109662</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>18.14994616795082</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>324.7966126378724</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -27904,7 +27906,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>189.4956161727077</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27953,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27989,7 +27991,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>122.3720671615425</v>
+        <v>16.10061421062358</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
@@ -27998,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28026,16 +28028,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>147.3903175997337</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34699,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>51.35040662570935</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>53.51252900994975</v>
@@ -34793,10 +34795,10 @@
         <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,13 +35026,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L12" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35735,16 +35737,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,16 +36205,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>99.8112771299739</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36680,13 +36682,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36914,10 +36916,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>104.6525397736754</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36926,7 +36928,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,10 +37390,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38096,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38111,7 +38113,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1837254.74573742</v>
+        <v>1768403.449295982</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3.0150637259599</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="V2" t="n">
-        <v>13.00576294050473</v>
-      </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -746,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>46.38724422570588</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3.89241773958567</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -913,13 +913,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.7050131246913</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>171.0057867469176</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>45.28887413297245</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>183.4693513325733</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>33.60023339142363</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>162.3746624677313</v>
       </c>
       <c r="V9" t="n">
-        <v>216.6999729388017</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>110.9174757594851</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,76 +1369,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>40.47627913313511</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1463,16 +1463,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>144.5674975588848</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>122.8083762270403</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>72.47049842454879</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="15">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>56.26539607665198</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>63.8738693221752</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1764,58 +1764,58 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>82.46119763909351</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>33.80371536444981</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>230.5219311756913</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>40.81693599802266</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2043,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>50.46697834767978</v>
       </c>
       <c r="C20" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>54.46919761294653</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>24.74894597221386</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>19.72793538656374</v>
       </c>
       <c r="E23" t="n">
         <v>241.0142888776591</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>124.906780124857</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="25">
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="27">
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="W27" t="n">
-        <v>124.906780124857</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>202.2946864288972</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2891,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>30.95184914057959</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2924,13 +2924,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>67.35888363780772</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3031,23 +3031,23 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>124.9970695510301</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3310,28 +3310,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>103.9917919211018</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>3.55522121023865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>19.23097888973112</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3705,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3784,19 +3784,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>137.0062620734511</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3830,19 +3830,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>49.23925438949308</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4064,13 +4064,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>10.27068583523948</v>
+        <v>84.92225986759678</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.8068625444412</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="C2" t="n">
-        <v>92.8068625444412</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="D2" t="n">
-        <v>92.8068625444412</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="E2" t="n">
-        <v>92.8068625444412</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="F2" t="n">
-        <v>85.86136179523773</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
         <v>16.35099156787933</v>
@@ -4333,16 +4333,16 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>55.11790488024824</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
+        <v>57.25840604064623</v>
+      </c>
+      <c r="N2" t="n">
         <v>108.0953086000985</v>
-      </c>
-      <c r="N2" t="n">
-        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
         <v>161.0727123199487</v>
@@ -4351,31 +4351,31 @@
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="U2" t="n">
-        <v>105.9439968277793</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="V2" t="n">
-        <v>92.8068625444412</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="W2" t="n">
-        <v>92.8068625444412</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="X2" t="n">
-        <v>92.8068625444412</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="Y2" t="n">
-        <v>92.8068625444412</v>
+        <v>41.79932185354235</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.9970564337892</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="C3" t="n">
-        <v>159.9970564337892</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="D3" t="n">
-        <v>159.9970564337892</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="E3" t="n">
         <v>113.1412541856014</v>
@@ -4400,7 +4400,7 @@
         <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
-        <v>59.08819457959154</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
         <v>5.035134973581694</v>
@@ -4412,19 +4412,19 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="M3" t="n">
         <v>57.25840604064623</v>
       </c>
-      <c r="L3" t="n">
-        <v>108.0953086000985</v>
-      </c>
-      <c r="M3" t="n">
-        <v>108.0953086000985</v>
-      </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O3" t="n">
-        <v>161.0727123199487</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="P3" t="n">
         <v>214.050116039799</v>
@@ -4433,28 +4433,28 @@
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="U3" t="n">
-        <v>214.050116039799</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="V3" t="n">
-        <v>214.050116039799</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="W3" t="n">
-        <v>214.050116039799</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="X3" t="n">
-        <v>214.050116039799</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.050116039799</v>
+        <v>167.1943137916113</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.82849811456629</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="C4" t="n">
-        <v>80.82849811456629</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="D4" t="n">
-        <v>80.82849811456629</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="E4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="I4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4512,28 +4512,28 @@
         <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>134.8815577205762</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>134.8815577205762</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>134.8815577205762</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>134.8815577205762</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>80.82849811456629</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>80.82849811456629</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="X4" t="n">
-        <v>80.82849811456629</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Y4" t="n">
-        <v>80.82849811456629</v>
+        <v>138.8132928110667</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>285.1327311248648</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C5" t="n">
-        <v>285.1327311248648</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D5" t="n">
-        <v>285.1327311248648</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>285.1327311248648</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>278.1872303756613</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>753.253405673024</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>753.253405673024</v>
       </c>
       <c r="U5" t="n">
-        <v>720.6083788665362</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="W5" t="n">
-        <v>477.1596022224361</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X5" t="n">
-        <v>285.1327311248648</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y5" t="n">
-        <v>285.1327311248648</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>817.1412885554689</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>621.8469951458151</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>860.4511411346975</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>817.1412885554689</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>817.1412885554689</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V6" t="n">
-        <v>817.1412885554689</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W6" t="n">
-        <v>817.1412885554689</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X6" t="n">
-        <v>817.1412885554689</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y6" t="n">
-        <v>817.1412885554689</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
         <v>19.28114311021272</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>281.7454097505996</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>281.7454097505996</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>281.7454097505996</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>281.7454097505996</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>460.1224861050055</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>216.6737094609055</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>768.6429630387997</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>768.6429630387997</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>768.6429630387997</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>768.6429630387997</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>525.1941863946997</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y8" t="n">
-        <v>281.7454097505996</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4892,43 +4892,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>597.8557502959362</v>
       </c>
       <c r="V9" t="n">
-        <v>470.5814199598456</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="W9" t="n">
-        <v>227.1326433157456</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U11" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V11" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W11" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X11" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y11" t="n">
-        <v>477.1596022224361</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>133.4044113554191</v>
+        <v>510.6151429241127</v>
       </c>
       <c r="C12" t="n">
-        <v>133.4044113554191</v>
+        <v>510.6151429241127</v>
       </c>
       <c r="D12" t="n">
-        <v>133.4044113554191</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E12" t="n">
-        <v>133.4044113554191</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F12" t="n">
-        <v>133.4044113554191</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G12" t="n">
-        <v>133.4044113554191</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5147,25 +5147,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>487.2836868729568</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V12" t="n">
-        <v>341.255911560952</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W12" t="n">
-        <v>341.255911560952</v>
+        <v>510.6151429241127</v>
       </c>
       <c r="X12" t="n">
-        <v>133.4044113554191</v>
+        <v>510.6151429241127</v>
       </c>
       <c r="Y12" t="n">
-        <v>133.4044113554191</v>
+        <v>510.6151429241127</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5226,25 +5226,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>518.2486856454962</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C14" t="n">
-        <v>518.2486856454962</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D14" t="n">
-        <v>274.7999090013961</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E14" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5302,28 +5302,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T14" t="n">
-        <v>518.2486856454962</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U14" t="n">
-        <v>518.2486856454962</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V14" t="n">
-        <v>518.2486856454962</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W14" t="n">
-        <v>518.2486856454962</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X14" t="n">
-        <v>518.2486856454962</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y14" t="n">
-        <v>518.2486856454962</v>
+        <v>255.9366034337592</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>327.4530077769195</v>
+        <v>422.7646269515677</v>
       </c>
       <c r="C15" t="n">
-        <v>327.4530077769195</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="D15" t="n">
-        <v>178.5185981156682</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5366,13 +5366,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N15" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O15" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5384,25 +5384,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V15" t="n">
-        <v>627.7355178317791</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W15" t="n">
-        <v>384.2867411876791</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X15" t="n">
-        <v>384.2867411876791</v>
+        <v>422.7646269515677</v>
       </c>
       <c r="Y15" t="n">
-        <v>384.2867411876791</v>
+        <v>422.7646269515677</v>
       </c>
     </row>
     <row r="16">
@@ -5463,25 +5463,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>475.3318284112885</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C17" t="n">
-        <v>475.3318284112885</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D17" t="n">
-        <v>475.3318284112885</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E17" t="n">
-        <v>231.8830517671884</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F17" t="n">
-        <v>231.8830517671884</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="G17" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U17" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V17" t="n">
-        <v>509.4769954460863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W17" t="n">
-        <v>509.4769954460863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X17" t="n">
-        <v>475.3318284112885</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y17" t="n">
-        <v>475.3318284112885</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E18" t="n">
         <v>19.28114311021272</v>
@@ -5597,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U18" t="n">
-        <v>487.2836868729568</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V18" t="n">
-        <v>252.1315786412141</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>521.1869644168632</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>521.1869644168632</v>
       </c>
     </row>
     <row r="19">
@@ -5691,22 +5691,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>348.0024326625565</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U20" t="n">
-        <v>591.4512093066566</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V20" t="n">
-        <v>348.0024326625565</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="W20" t="n">
-        <v>348.0024326625565</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X20" t="n">
-        <v>348.0024326625565</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y20" t="n">
-        <v>348.0024326625565</v>
+        <v>82.32787816303323</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>426.903709034957</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>426.903709034957</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>277.9692993737057</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>277.9692993737057</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>277.9692993737057</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5843,13 +5843,13 @@
         <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>252.1315786412141</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W21" t="n">
-        <v>227.1326433157456</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>426.903709034957</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G22" t="n">
         <v>19.28114311021272</v>
@@ -5934,28 +5934,28 @@
         <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>517.4848137278872</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6074,19 +6074,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>353.3011080883284</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>353.3011080883284</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>145.4496078827955</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>145.4496078827955</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6186,10 +6186,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
         <v>19.28114311021272</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6314,7 +6314,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
         <v>725.4530095217538</v>
@@ -6332,22 +6332,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>353.3011080883284</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6423,10 +6423,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>178.5185981156682</v>
+        <v>51.29976984439196</v>
       </c>
       <c r="C30" t="n">
-        <v>178.5185981156682</v>
+        <v>51.29976984439196</v>
       </c>
       <c r="D30" t="n">
-        <v>178.5185981156682</v>
+        <v>51.29976984439196</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>51.29976984439196</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>51.29976984439196</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>51.29976984439196</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>51.29976984439196</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6572,22 +6572,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>621.4310051123648</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V30" t="n">
-        <v>386.2788968806221</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W30" t="n">
-        <v>386.2788968806221</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X30" t="n">
-        <v>386.2788968806221</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y30" t="n">
-        <v>178.5185981156682</v>
+        <v>51.29976984439196</v>
       </c>
     </row>
     <row r="31">
@@ -6645,10 +6645,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>587.3248651012614</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>587.3248651012614</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>587.3248651012614</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>587.3248651012614</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>587.3248651012614</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,43 +6788,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
         <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V33" t="n">
-        <v>353.3011080883284</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W33" t="n">
-        <v>353.3011080883284</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X33" t="n">
-        <v>353.3011080883284</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y33" t="n">
-        <v>145.5408093233744</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6879,22 +6879,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>315.6850394389064</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C35" t="n">
-        <v>315.6850394389064</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D35" t="n">
-        <v>315.6850394389064</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="E35" t="n">
-        <v>315.6850394389064</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="F35" t="n">
-        <v>72.23626279480629</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>802.5825927271064</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U35" t="n">
-        <v>802.5825927271064</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V35" t="n">
-        <v>802.5825927271064</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W35" t="n">
-        <v>559.1338160830064</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X35" t="n">
-        <v>315.6850394389064</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y35" t="n">
-        <v>315.6850394389064</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>432.4774131586771</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V36" t="n">
-        <v>197.3253049269343</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W36" t="n">
-        <v>197.3253049269343</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X36" t="n">
-        <v>197.3253049269343</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.7341723913397</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="37">
@@ -7128,7 +7128,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>348.0024326625565</v>
+      </c>
+      <c r="C38" t="n">
+        <v>348.0024326625565</v>
+      </c>
+      <c r="D38" t="n">
+        <v>348.0024326625565</v>
+      </c>
+      <c r="E38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>517.4848137278872</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U38" t="n">
-        <v>274.0360370837871</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7256,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>487.8483949674443</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>670.0450503124422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>670.0450503124422</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>434.8929420806995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
         <v>19.28114311021272</v>
@@ -7353,31 +7353,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T41" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U41" t="n">
-        <v>569.2254314512334</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V41" t="n">
-        <v>569.2254314512334</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W41" t="n">
-        <v>325.7766548071333</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X41" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.6713068207694</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7496,46 +7496,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>234.810827406191</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>813.1510054680743</v>
       </c>
       <c r="U42" t="n">
-        <v>533.6469426057913</v>
+        <v>813.1510054680743</v>
       </c>
       <c r="V42" t="n">
-        <v>533.6469426057913</v>
+        <v>577.9988972363316</v>
       </c>
       <c r="W42" t="n">
-        <v>533.6469426057913</v>
+        <v>577.9988972363316</v>
       </c>
       <c r="X42" t="n">
-        <v>533.6469426057913</v>
+        <v>577.9988972363316</v>
       </c>
       <c r="Y42" t="n">
-        <v>325.8866438408374</v>
+        <v>370.2385984713777</v>
       </c>
     </row>
     <row r="43">
@@ -7596,16 +7596,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
         <v>122.2961490211351</v>
@@ -7675,25 +7675,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>30.40970589960398</v>
+        <v>411.587349213889</v>
       </c>
       <c r="C45" t="n">
-        <v>30.40970589960398</v>
+        <v>411.587349213889</v>
       </c>
       <c r="D45" t="n">
-        <v>30.40970589960398</v>
+        <v>411.587349213889</v>
       </c>
       <c r="E45" t="n">
-        <v>30.40970589960398</v>
+        <v>252.3498942084335</v>
       </c>
       <c r="F45" t="n">
-        <v>30.40970589960398</v>
+        <v>105.8153362353184</v>
       </c>
       <c r="G45" t="n">
         <v>20.03527576299844</v>
@@ -7736,16 +7736,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7754,25 +7754,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W45" t="n">
-        <v>446.0215048700907</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X45" t="n">
-        <v>238.1700046645579</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y45" t="n">
-        <v>30.40970589960398</v>
+        <v>411.587349213889</v>
       </c>
     </row>
     <row r="46">
@@ -7848,10 +7848,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>287.1168215956966</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
         <v>284.7455247652193</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>189.9047864055835</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
         <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>185.3248140400396</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>168.5314335381781</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8540,7 +8540,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>184.6294155606472</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -8786,7 +8786,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9014,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9023,7 +9023,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9491,16 +9491,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O21" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,22 +9722,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>295.1552315763977</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10436,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>242.4075215744184</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>369.031319612638</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>229.6373335557741</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11153,13 +11153,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11384,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>341.4540909391267</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23281,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23314,19 +23314,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23342,7 +23342,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23351,16 +23351,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,22 +23387,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>88.23308959054049</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>128.8866069338794</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.07350359897357</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23500,13 +23500,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>147.6414643519508</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.6253511395826</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>110.2677875732154</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23624,22 +23624,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>141.8991158813023</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,7 +23703,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23740,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>332.8415398760416</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23791,16 +23791,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>335.9273853140192</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>21.17305198522826</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>164.9560492054548</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23931,13 +23931,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23949,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>332.2668633158008</v>
       </c>
       <c r="C20" t="n">
-        <v>280.8531039918463</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24053,7 +24053,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24062,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>82.8743195502641</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>226.9460371887057</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>120.9660550247851</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>334.9551062341192</v>
       </c>
       <c r="E23" t="n">
         <v>140.9160811946027</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>240.1525967516569</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>41.62640352501036</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="25">
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,13 +24454,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24499,19 +24499,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="27">
@@ -24572,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="W27" t="n">
-        <v>126.7882030360626</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="29">
@@ -24691,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24736,7 +24736,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>49.05096647893927</v>
+        <v>51.00955661900684</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24767,7 +24767,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24779,10 +24779,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>58.44478371083549</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24812,13 +24812,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>158.5824984431671</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24885,13 +24885,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24919,10 +24919,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>284.9381847551875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24934,7 +24934,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24964,7 +24964,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24973,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>41.53611409883725</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>71.10541651401829</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25119,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>239.4980740029173</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25165,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>362.8771690273874</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25198,28 +25198,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>62.54139172876556</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>202.1274745670657</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25368,10 +25368,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>297.5105822931005</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>316.5592023139553</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25478,7 +25478,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>127.8460714905183</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>180.9337498050905</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25593,10 +25593,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25630,19 +25630,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>330.8829497359738</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,7 +25693,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>307.3148329761767</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>35.70223691486467</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25718,19 +25718,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>150.9254743053285</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25885,7 +25885,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25915,25 +25915,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25952,13 +25952,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>127.0728313279712</v>
+        <v>52.42125729561386</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>349056.5022059419</v>
+        <v>349056.5022059418</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>349056.5022059419</v>
+        <v>349056.5022059418</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>349056.5022059419</v>
+        <v>349056.5022059418</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>349056.5022059419</v>
+        <v>349056.5022059418</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>349056.5022059419</v>
+        <v>349056.5022059418</v>
       </c>
     </row>
     <row r="15">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982123</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982126</v>
-      </c>
-      <c r="C2" t="n">
-        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
+        <v>249241.0087969985</v>
+      </c>
+      <c r="F2" t="n">
         <v>249241.0087969986</v>
-      </c>
-      <c r="F2" t="n">
-        <v>249241.0087969985</v>
       </c>
       <c r="G2" t="n">
         <v>249241.0087969986</v>
       </c>
       <c r="H2" t="n">
-        <v>249241.0087969986</v>
+        <v>249241.0087969985</v>
       </c>
       <c r="I2" t="n">
-        <v>249241.0087969986</v>
+        <v>249241.0087969985</v>
       </c>
       <c r="J2" t="n">
         <v>249241.0087969986</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>341864.8743836955</v>
+        <v>341864.8743836957</v>
       </c>
       <c r="C4" t="n">
-        <v>295860.2172754403</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="D4" t="n">
         <v>295860.2172754402</v>
@@ -26453,7 +26453,7 @@
         <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>16914.68964098084</v>
+        <v>16914.68964098083</v>
       </c>
       <c r="O4" t="n">
         <v>16914.68964098084</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>219102.0119913108</v>
+        <v>219102.0119913103</v>
       </c>
       <c r="C6" t="n">
-        <v>211063.5191723423</v>
+        <v>211063.5191723426</v>
       </c>
       <c r="D6" t="n">
         <v>271639.8413590106</v>
       </c>
       <c r="E6" t="n">
-        <v>217672.6503922561</v>
+        <v>205454.6397722155</v>
       </c>
       <c r="F6" t="n">
-        <v>217672.650392256</v>
+        <v>205454.6397722157</v>
       </c>
       <c r="G6" t="n">
-        <v>217672.6503922561</v>
+        <v>205454.6397722156</v>
       </c>
       <c r="H6" t="n">
-        <v>217672.6503922561</v>
+        <v>205454.6397722155</v>
       </c>
       <c r="I6" t="n">
-        <v>217672.6503922561</v>
+        <v>205454.6397722155</v>
       </c>
       <c r="J6" t="n">
-        <v>203671.4182519768</v>
+        <v>191453.4076319363</v>
       </c>
       <c r="K6" t="n">
-        <v>169415.6974586234</v>
+        <v>157197.686838583</v>
       </c>
       <c r="L6" t="n">
-        <v>217672.6503922561</v>
+        <v>205454.6397722157</v>
       </c>
       <c r="M6" t="n">
-        <v>217672.6503922561</v>
+        <v>205454.6397722156</v>
       </c>
       <c r="N6" t="n">
-        <v>217672.6503922561</v>
+        <v>205454.6397722157</v>
       </c>
       <c r="O6" t="n">
-        <v>217672.6503922561</v>
+        <v>205454.6397722156</v>
       </c>
       <c r="P6" t="n">
-        <v>217672.6503922561</v>
+        <v>205454.6397722156</v>
       </c>
     </row>
   </sheetData>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>351.667977894723</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>156.9633605604562</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27435,13 +27435,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>197.8331238978867</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>314.7464955296302</v>
+        <v>274.2397294601852</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>295.7284397074633</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27466,16 +27466,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>111.257836229695</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>91.55668338343412</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>83.83098815326088</v>
       </c>
       <c r="H3" t="n">
-        <v>58.72291522654671</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>53.77058992693726</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>141.0849115331593</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>92.92143363661941</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,13 +27557,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>101.9379459173085</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>173.4009736375838</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27596,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>198.6251143138782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27633,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>10.31505646155401</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27681,7 +27681,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>179.6244982918734</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,31 +27694,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>1.70271224139816</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>154.8758545618492</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27791,7 +27791,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27870,7 +27870,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>156.0054507831939</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>189.4956161727077</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27955,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>63.56671961324352</v>
       </c>
       <c r="V9" t="n">
-        <v>16.10061421062358</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28028,7 +28028,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>51.30969674795443</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>51.35040662570935</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>53.51252900994975</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L3" t="n">
-        <v>51.35040662570935</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34947,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35020,7 +35020,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>34.55702612384782</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>46.78797658628819</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35734,7 +35734,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36211,16 +36211,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,10 +36682,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N27" t="n">
         <v>240.0046611659691</v>
-      </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36913,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>99.8112771299739</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>226.4350751681936</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>91.0829537758999</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37873,13 +37873,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
